--- a/csv_samples/addressxlsx.xlsx
+++ b/csv_samples/addressxlsx.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97F3A5B-0F51-634B-8C75-FB111532FB4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="19">
   <si>
     <t>dummy1</t>
   </si>
@@ -74,17 +75,28 @@
   <si>
     <t>東港城</t>
   </si>
+  <si>
+    <t>中文字 testing chinese words</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -389,16 +401,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86:D127"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -412,7 +424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>123</v>
       </c>
@@ -426,7 +438,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>124</v>
       </c>
@@ -440,7 +452,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>125</v>
       </c>
@@ -454,7 +466,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>126</v>
       </c>
@@ -468,7 +480,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>127</v>
       </c>
@@ -482,7 +494,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>128</v>
       </c>
@@ -496,7 +508,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>129</v>
       </c>
@@ -510,7 +522,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>130</v>
       </c>
@@ -524,7 +536,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>131</v>
       </c>
@@ -538,7 +550,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>132</v>
       </c>
@@ -552,7 +564,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>133</v>
       </c>
@@ -566,7 +578,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>134</v>
       </c>
@@ -580,7 +592,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>135</v>
       </c>
@@ -590,8 +602,11 @@
       <c r="C14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>136</v>
       </c>
@@ -605,7 +620,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>123</v>
       </c>
@@ -619,7 +634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>124</v>
       </c>
@@ -633,7 +648,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>125</v>
       </c>
@@ -647,7 +662,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>126</v>
       </c>
@@ -661,7 +676,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>127</v>
       </c>
@@ -675,7 +690,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>128</v>
       </c>
@@ -689,7 +704,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>129</v>
       </c>
@@ -703,7 +718,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>130</v>
       </c>
@@ -717,7 +732,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>131</v>
       </c>
@@ -731,7 +746,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>132</v>
       </c>
@@ -745,7 +760,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>133</v>
       </c>
@@ -759,7 +774,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>134</v>
       </c>
@@ -773,7 +788,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>135</v>
       </c>
@@ -784,7 +799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>136</v>
       </c>
@@ -798,7 +813,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>123</v>
       </c>
@@ -812,7 +827,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>124</v>
       </c>
@@ -826,7 +841,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>125</v>
       </c>
@@ -840,7 +855,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>126</v>
       </c>
@@ -854,7 +869,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>127</v>
       </c>
@@ -868,7 +883,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>128</v>
       </c>
@@ -882,7 +897,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>129</v>
       </c>
@@ -896,7 +911,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>130</v>
       </c>
@@ -910,7 +925,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>131</v>
       </c>
@@ -924,7 +939,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>132</v>
       </c>
@@ -938,7 +953,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>133</v>
       </c>
@@ -952,7 +967,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>134</v>
       </c>
@@ -966,7 +981,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>135</v>
       </c>
@@ -977,7 +992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>136</v>
       </c>
@@ -991,7 +1006,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>123</v>
       </c>
@@ -1005,7 +1020,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>124</v>
       </c>
@@ -1019,7 +1034,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>125</v>
       </c>
@@ -1033,7 +1048,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>126</v>
       </c>
@@ -1047,7 +1062,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>127</v>
       </c>
@@ -1061,7 +1076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>128</v>
       </c>
@@ -1075,7 +1090,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50">
         <v>129</v>
       </c>
@@ -1089,7 +1104,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>130</v>
       </c>
@@ -1103,7 +1118,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52">
         <v>131</v>
       </c>
@@ -1117,7 +1132,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53">
         <v>132</v>
       </c>
@@ -1131,7 +1146,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54">
         <v>133</v>
       </c>
@@ -1145,7 +1160,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55">
         <v>134</v>
       </c>
@@ -1159,7 +1174,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56">
         <v>135</v>
       </c>
@@ -1170,7 +1185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="A57">
         <v>136</v>
       </c>
@@ -1184,7 +1199,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="A58">
         <v>123</v>
       </c>
@@ -1198,7 +1213,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="A59">
         <v>124</v>
       </c>
@@ -1212,7 +1227,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="A60">
         <v>125</v>
       </c>
@@ -1226,7 +1241,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="A61">
         <v>126</v>
       </c>
@@ -1240,7 +1255,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="A62">
         <v>127</v>
       </c>
@@ -1254,7 +1269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="A63">
         <v>128</v>
       </c>
@@ -1268,7 +1283,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4">
       <c r="A64">
         <v>129</v>
       </c>
@@ -1282,7 +1297,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4">
       <c r="A65">
         <v>130</v>
       </c>
@@ -1296,7 +1311,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4">
       <c r="A66">
         <v>131</v>
       </c>
@@ -1310,7 +1325,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4">
       <c r="A67">
         <v>132</v>
       </c>
@@ -1324,7 +1339,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4">
       <c r="A68">
         <v>133</v>
       </c>
@@ -1338,7 +1353,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4">
       <c r="A69">
         <v>134</v>
       </c>
@@ -1352,7 +1367,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4">
       <c r="A70">
         <v>135</v>
       </c>
@@ -1363,7 +1378,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4">
       <c r="A71">
         <v>136</v>
       </c>
@@ -1377,7 +1392,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4">
       <c r="A72">
         <v>123</v>
       </c>
@@ -1391,7 +1406,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4">
       <c r="A73">
         <v>124</v>
       </c>
@@ -1405,7 +1420,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4">
       <c r="A74">
         <v>125</v>
       </c>
@@ -1419,7 +1434,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4">
       <c r="A75">
         <v>126</v>
       </c>
@@ -1433,7 +1448,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4">
       <c r="A76">
         <v>127</v>
       </c>
@@ -1447,7 +1462,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4">
       <c r="A77">
         <v>128</v>
       </c>
@@ -1461,7 +1476,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4">
       <c r="A78">
         <v>129</v>
       </c>
@@ -1475,7 +1490,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4">
       <c r="A79">
         <v>130</v>
       </c>
@@ -1489,7 +1504,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4">
       <c r="A80">
         <v>131</v>
       </c>
@@ -1503,7 +1518,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4">
       <c r="A81">
         <v>132</v>
       </c>
@@ -1517,7 +1532,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4">
       <c r="A82">
         <v>133</v>
       </c>
@@ -1531,7 +1546,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4">
       <c r="A83">
         <v>134</v>
       </c>
@@ -1545,7 +1560,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4">
       <c r="A84">
         <v>135</v>
       </c>
@@ -1556,7 +1571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4">
       <c r="A85">
         <v>136</v>
       </c>
@@ -1570,7 +1585,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4">
       <c r="A86">
         <v>123</v>
       </c>
@@ -1584,7 +1599,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4">
       <c r="A87">
         <v>124</v>
       </c>
@@ -1598,7 +1613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4">
       <c r="A88">
         <v>125</v>
       </c>
@@ -1612,7 +1627,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4">
       <c r="A89">
         <v>126</v>
       </c>
@@ -1626,7 +1641,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4">
       <c r="A90">
         <v>127</v>
       </c>
@@ -1640,7 +1655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4">
       <c r="A91">
         <v>128</v>
       </c>
@@ -1654,7 +1669,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4">
       <c r="A92">
         <v>129</v>
       </c>
@@ -1668,7 +1683,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4">
       <c r="A93">
         <v>130</v>
       </c>
@@ -1682,7 +1697,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4">
       <c r="A94">
         <v>131</v>
       </c>
@@ -1696,7 +1711,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4">
       <c r="A95">
         <v>132</v>
       </c>
@@ -1710,7 +1725,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4">
       <c r="A96">
         <v>133</v>
       </c>
@@ -1724,7 +1739,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4">
       <c r="A97">
         <v>134</v>
       </c>
@@ -1738,7 +1753,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4">
       <c r="A98">
         <v>135</v>
       </c>
@@ -1749,7 +1764,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4">
       <c r="A99">
         <v>136</v>
       </c>
@@ -1763,7 +1778,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4">
       <c r="A100">
         <v>123</v>
       </c>
@@ -1777,7 +1792,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4">
       <c r="A101">
         <v>124</v>
       </c>
@@ -1791,7 +1806,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4">
       <c r="A102">
         <v>125</v>
       </c>
@@ -1805,7 +1820,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4">
       <c r="A103">
         <v>126</v>
       </c>
@@ -1819,7 +1834,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4">
       <c r="A104">
         <v>127</v>
       </c>
@@ -1833,7 +1848,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4">
       <c r="A105">
         <v>128</v>
       </c>
@@ -1847,7 +1862,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4">
       <c r="A106">
         <v>129</v>
       </c>
@@ -1861,7 +1876,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4">
       <c r="A107">
         <v>130</v>
       </c>
@@ -1875,7 +1890,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4">
       <c r="A108">
         <v>131</v>
       </c>
@@ -1889,7 +1904,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4">
       <c r="A109">
         <v>132</v>
       </c>
@@ -1903,7 +1918,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4">
       <c r="A110">
         <v>133</v>
       </c>
@@ -1917,7 +1932,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4">
       <c r="A111">
         <v>134</v>
       </c>
@@ -1931,7 +1946,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4">
       <c r="A112">
         <v>135</v>
       </c>
@@ -1942,7 +1957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4">
       <c r="A113">
         <v>136</v>
       </c>
@@ -1956,7 +1971,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4">
       <c r="A114">
         <v>123</v>
       </c>
@@ -1970,7 +1985,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4">
       <c r="A115">
         <v>124</v>
       </c>
@@ -1984,7 +1999,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4">
       <c r="A116">
         <v>125</v>
       </c>
@@ -1998,7 +2013,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4">
       <c r="A117">
         <v>126</v>
       </c>
@@ -2012,7 +2027,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4">
       <c r="A118">
         <v>127</v>
       </c>
@@ -2026,7 +2041,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4">
       <c r="A119">
         <v>128</v>
       </c>
@@ -2040,7 +2055,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4">
       <c r="A120">
         <v>129</v>
       </c>
@@ -2054,7 +2069,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4">
       <c r="A121">
         <v>130</v>
       </c>
@@ -2068,7 +2083,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4">
       <c r="A122">
         <v>131</v>
       </c>
@@ -2082,7 +2097,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4">
       <c r="A123">
         <v>132</v>
       </c>
@@ -2096,7 +2111,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4">
       <c r="A124">
         <v>133</v>
       </c>
@@ -2110,7 +2125,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4">
       <c r="A125">
         <v>134</v>
       </c>
@@ -2124,7 +2139,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4">
       <c r="A126">
         <v>135</v>
       </c>
@@ -2135,7 +2150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4">
       <c r="A127">
         <v>136</v>
       </c>
@@ -2150,6 +2165,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>